--- a/simulations/raw_inclusion_exclusion/Sep_2021 IEC/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Sep_2021 IEC/output/tables/metrics/metrics_sim.xlsx
@@ -713,13 +713,13 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0.25</v>
+        <v>0.275</v>
       </c>
       <c r="D3">
-        <v>0.475</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
-        <v>0.825</v>
+        <v>0.725</v>
       </c>
       <c r="F3">
         <v>0.925</v>
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.1439114391143911</v>
+        <v>0.1734317343173432</v>
       </c>
       <c r="I3">
-        <v>0.2713203463203463</v>
+        <v>0.2774891774891775</v>
       </c>
       <c r="J3">
-        <v>0.15</v>
+        <v>0.175</v>
       </c>
       <c r="K3">
-        <v>83.175</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="L3">
         <v>4</v>
@@ -755,34 +755,34 @@
         <v>36</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S3">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="T3">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="U3">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="V3">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="W3">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X3">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="Y3">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="Z3">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA3">
         <v>36</v>
@@ -800,19 +800,19 @@
         <v>4</v>
       </c>
       <c r="AF3">
-        <v>0.9913419999999999</v>
+        <v>0.9740259999999999</v>
       </c>
       <c r="AG3">
-        <v>0.948052</v>
+        <v>0.943723</v>
       </c>
       <c r="AH3">
-        <v>0.7619050000000001</v>
+        <v>0.818182</v>
       </c>
       <c r="AI3">
-        <v>0.580087</v>
+        <v>0.502165</v>
       </c>
       <c r="AJ3">
-        <v>0.402597</v>
+        <v>0.398268</v>
       </c>
     </row>
   </sheetData>
